--- a/2016년 재료비 8월/아이로보 재료비.xlsx
+++ b/2016년 재료비 8월/아이로보 재료비.xlsx
@@ -492,10 +492,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.875" style="1" customWidth="1"/>
